--- a/risikovurderinger/Risikovurdering-Myndighedsarkiv.xlsx
+++ b/risikovurderinger/Risikovurdering-Myndighedsarkiv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\github\persondata\risikovurderinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FECB12-0665-4E2B-8412-158D9EF300A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1958E66-2A1E-4EA8-82C9-B458B177DADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEJLEDNING" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="562">
   <si>
     <t>Spørgsmål</t>
   </si>
@@ -2083,6 +2083,9 @@
   </si>
   <si>
     <t>Stadsarkivets ressource- og personalemæssige størrelse gør at der kun er to personer, som reelt har kompetencer til at tilgå og hente data fra løsningen.</t>
+  </si>
+  <si>
+    <t>Ingen ændringer</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2710,12 +2713,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2734,12 +2731,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20310,8 +20314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414EDFAA-A4AC-488F-89E2-85B1D90FA2E0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20337,9 +20341,15 @@
       <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="120">
+        <v>45048</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>561</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
@@ -21854,17 +21864,17 @@
       <c r="BZ2" s="16"/>
     </row>
     <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -22390,17 +22400,17 @@
       <c r="BZ8" s="17"/>
     </row>
     <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -25195,7 +25205,7 @@
       <c r="BZ39" s="15"/>
     </row>
     <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
+      <c r="A40" s="116"/>
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
@@ -25285,7 +25295,7 @@
       <c r="BZ40" s="15"/>
     </row>
     <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
@@ -25375,7 +25385,7 @@
       <c r="BZ41" s="17"/>
     </row>
     <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="6" t="s">
         <v>43</v>
       </c>
@@ -37957,42 +37967,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -42228,7 +42238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DD33E5-E8D8-40FF-A366-FF9261BBA5B4}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -45596,18 +45606,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45630,14 +45640,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C61CDB-0D2F-40B2-80EB-B5C2BB1999ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -45652,4 +45654,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>